--- a/res/salariesetu.xlsx
+++ b/res/salariesetu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\cours\IUT\GEA\tdexcel20162017\tcd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\Excel20192020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DFB4785-8587-4CE7-8B55-3C93BBA9D5DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,13 +29,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>J-Marc Stoeffler</author>
     <author>my-pc</author>
   </authors>
   <commentList>
-    <comment ref="H77" authorId="0" shapeId="0">
+    <comment ref="H77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B232" authorId="1" shapeId="0">
+    <comment ref="B232" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2567,7 +2568,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; €  &quot;"/>
     <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
@@ -2599,6 +2600,7 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2772,7 +2774,7 @@
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Feuil1_1" xfId="2"/>
+    <cellStyle name="Normal_Feuil1_1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2807,7 +2809,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="my-pc" refreshedDate="42611.42015740741" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="284">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="my-pc" refreshedDate="42611.42015740741" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="284" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J284" sheet="salariés"/>
   </cacheSource>
@@ -7279,7 +7281,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A285" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -9223,6 +9225,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -9489,2003 +9494,2003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="281" width="3" customWidth="1"/>
-    <col min="282" max="282" width="6.28515625" customWidth="1"/>
-    <col min="283" max="283" width="12.5703125" customWidth="1"/>
+    <col min="282" max="282" width="6.33203125" customWidth="1"/>
+    <col min="283" max="283" width="12.5546875" customWidth="1"/>
     <col min="284" max="285" width="3" customWidth="1"/>
-    <col min="286" max="286" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.140625" customWidth="1"/>
-    <col min="288" max="288" width="11.140625" customWidth="1"/>
-    <col min="289" max="289" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="452" max="452" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="460" max="460" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="468" max="468" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="488" max="488" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="492" max="492" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="496" max="496" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="502" max="502" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="504" max="504" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="506" max="506" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="535" max="535" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="538" max="538" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="548" max="548" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="549" max="549" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="550" max="550" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="552" max="552" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="553" max="553" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="554" max="554" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="556" max="556" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="557" max="557" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="558" max="558" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="560" max="560" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="561" max="561" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="562" max="562" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="564" max="564" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="565" max="565" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="566" max="566" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="568" max="568" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="569" max="569" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="570" max="570" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="572" max="572" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="573" max="573" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="574" max="574" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="576" max="576" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="577" max="577" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="578" max="578" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="579" max="579" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="580" max="580" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="581" max="581" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="582" max="582" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="583" max="583" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="585" max="585" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="586" max="586" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="587" max="587" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="588" max="588" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="590" max="590" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="591" max="591" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="592" max="592" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="593" max="593" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="594" max="594" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="595" max="595" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="596" max="596" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="597" max="597" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="598" max="598" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="599" max="599" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="600" max="600" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="601" max="601" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="602" max="602" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="603" max="603" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="604" max="604" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="605" max="605" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="606" max="606" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="608" max="608" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="609" max="609" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="610" max="610" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="611" max="611" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="612" max="612" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="613" max="613" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="614" max="614" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="615" max="615" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="616" max="616" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="617" max="617" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="618" max="618" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="619" max="619" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="620" max="620" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="621" max="621" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="622" max="622" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="623" max="623" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="624" max="624" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="628" max="628" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="629" max="629" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="630" max="630" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="631" max="631" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="632" max="632" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="633" max="633" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="636" max="636" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="637" max="637" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="638" max="638" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="639" max="639" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="640" max="640" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="641" max="641" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="642" max="642" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="643" max="643" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="644" max="644" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="645" max="645" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="646" max="646" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="647" max="647" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="649" max="649" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="650" max="650" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="651" max="651" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="652" max="652" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="653" max="653" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="654" max="654" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="655" max="655" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="656" max="656" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="657" max="657" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="658" max="658" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="659" max="659" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="660" max="660" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="661" max="661" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="662" max="662" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="663" max="663" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="664" max="664" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="665" max="665" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="666" max="666" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="667" max="667" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="668" max="668" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="669" max="669" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="670" max="670" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="671" max="671" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="672" max="672" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="673" max="673" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="674" max="674" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="675" max="675" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="676" max="676" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="677" max="677" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="678" max="678" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="679" max="679" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="680" max="680" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="681" max="681" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="682" max="682" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="683" max="683" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="684" max="684" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="685" max="685" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="686" max="686" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="687" max="687" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="688" max="688" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="689" max="689" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="690" max="690" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="691" max="691" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="692" max="692" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="693" max="693" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="694" max="694" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="695" max="695" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="696" max="696" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="697" max="697" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="698" max="698" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="699" max="699" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="700" max="700" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="701" max="701" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="702" max="702" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="703" max="703" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="704" max="704" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="705" max="705" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="706" max="706" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="707" max="707" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="708" max="708" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="709" max="709" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="710" max="710" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="711" max="711" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="712" max="712" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="713" max="713" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="714" max="714" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="715" max="715" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="716" max="716" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="717" max="717" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="718" max="718" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="719" max="719" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="720" max="720" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="721" max="721" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="722" max="722" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="723" max="723" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="724" max="724" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="725" max="725" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="726" max="726" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="727" max="727" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="728" max="728" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="729" max="729" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="730" max="730" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="731" max="731" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="732" max="732" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="733" max="733" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="734" max="734" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="735" max="735" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="736" max="736" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="737" max="737" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="738" max="738" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="739" max="739" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="740" max="740" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="741" max="741" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="742" max="742" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="743" max="743" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="744" max="744" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="745" max="745" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="746" max="746" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="747" max="747" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="748" max="748" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="749" max="749" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="750" max="750" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="751" max="751" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="752" max="752" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="753" max="753" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="754" max="754" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="755" max="755" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="756" max="756" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="757" max="757" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="758" max="758" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="759" max="759" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="760" max="760" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="761" max="761" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="762" max="762" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="763" max="763" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="764" max="764" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="765" max="765" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="766" max="766" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="767" max="767" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="782" max="782" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="784" max="784" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="785" max="785" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="787" max="787" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="788" max="788" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="789" max="789" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="791" max="791" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="793" max="793" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="794" max="794" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="795" max="795" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="796" max="796" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="797" max="797" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="799" max="799" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="800" max="800" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="801" max="801" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="802" max="802" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="803" max="803" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="804" max="804" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="805" max="805" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="806" max="806" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="807" max="807" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="808" max="808" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="809" max="809" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="810" max="810" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="811" max="811" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="812" max="812" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="813" max="813" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="814" max="814" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="815" max="815" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="816" max="816" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="817" max="817" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="818" max="818" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="819" max="819" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="820" max="820" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="821" max="821" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="822" max="822" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="823" max="823" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="824" max="824" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="825" max="825" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="826" max="826" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="827" max="827" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="828" max="828" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="829" max="829" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="830" max="830" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="831" max="831" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="832" max="832" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="833" max="833" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="834" max="834" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="835" max="835" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="836" max="836" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="837" max="837" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="838" max="838" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="839" max="839" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="840" max="840" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="841" max="841" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="842" max="842" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="843" max="843" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="844" max="844" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="845" max="845" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="846" max="846" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="847" max="847" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="848" max="848" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="849" max="849" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="850" max="850" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="851" max="851" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="8.109375" customWidth="1"/>
+    <col min="288" max="288" width="11.109375" customWidth="1"/>
+    <col min="289" max="289" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="608" max="608" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="632" max="632" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="636" max="636" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="638" max="638" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="640" max="640" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="644" max="644" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="646" max="646" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="650" max="650" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="653" max="653" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="654" max="654" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="655" max="655" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="656" max="656" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="657" max="657" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="658" max="658" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="659" max="659" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="660" max="660" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="661" max="661" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="662" max="662" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="665" max="665" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="666" max="666" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="667" max="667" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="668" max="668" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="671" max="671" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="672" max="672" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="673" max="673" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="674" max="674" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="676" max="676" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="677" max="677" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="679" max="679" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="680" max="680" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="682" max="682" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="683" max="683" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="685" max="685" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="686" max="686" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="687" max="687" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="688" max="688" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="689" max="689" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="690" max="690" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="691" max="691" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="692" max="692" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="693" max="693" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="694" max="694" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="695" max="695" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="697" max="697" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="698" max="698" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="700" max="700" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="701" max="701" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="703" max="703" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="704" max="704" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="705" max="705" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="706" max="706" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="707" max="707" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="709" max="709" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="710" max="710" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="711" max="711" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="712" max="712" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="713" max="713" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="714" max="714" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="715" max="715" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="716" max="716" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="718" max="718" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="719" max="719" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="721" max="721" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="722" max="722" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="724" max="724" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="725" max="725" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="727" max="727" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="728" max="728" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="729" max="729" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="730" max="730" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="731" max="731" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="733" max="733" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="734" max="734" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="735" max="735" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="736" max="736" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="737" max="737" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="739" max="739" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="740" max="740" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="742" max="742" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="743" max="743" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="745" max="745" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="746" max="746" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="748" max="748" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="749" max="749" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="750" max="750" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="751" max="751" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="752" max="752" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="753" max="753" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="754" max="754" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="755" max="755" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="757" max="757" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="758" max="758" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="759" max="759" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="760" max="760" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="761" max="761" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="763" max="763" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="764" max="764" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="765" max="765" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="766" max="766" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="785" max="785" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="787" max="787" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="788" max="788" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="791" max="791" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="793" max="793" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="794" max="794" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="795" max="795" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="796" max="796" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="797" max="797" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="799" max="799" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="800" max="800" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="802" max="802" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="803" max="803" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="804" max="804" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="805" max="805" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="806" max="806" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="808" max="808" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="809" max="809" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="811" max="811" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="812" max="812" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="813" max="813" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="814" max="814" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="815" max="815" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="816" max="816" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="817" max="817" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="818" max="818" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="819" max="819" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="820" max="820" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="821" max="821" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="822" max="822" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="823" max="823" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="824" max="824" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="825" max="825" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="826" max="826" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="827" max="827" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="828" max="828" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="829" max="829" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="830" max="830" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="831" max="831" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="832" max="832" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="833" max="833" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="834" max="834" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="835" max="835" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="836" max="836" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="837" max="837" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="838" max="838" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="839" max="839" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="840" max="840" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="841" max="841" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="842" max="842" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="843" max="843" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="844" max="844" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="845" max="845" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="846" max="846" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="847" max="847" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="848" max="848" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="849" max="849" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="850" max="850" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="851" max="851" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>8739</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>8851</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>9138</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>9210</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>9233</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>9308</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9434</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9455</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9484</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>9769</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9830</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>9901</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>9910</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>9911</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>9926</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>10001</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>10042</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>10147</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>10255</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>10353</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>10542</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>10559</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>10717</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>10778</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>10801</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>10851</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>10956</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>10968</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>11031</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>11052</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>11110</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>11161</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>11165</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>11181</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>11206</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>11262</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>11306</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>11455</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>11506</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>11524</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>11529</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>11565</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>11622</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>11673</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>11723</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>11765</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>11846</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>11847</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>11916</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>11920</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>11924</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>11991</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>11994</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>12015</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>12104</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>12160</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>12188</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>12204</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>12270</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>12337</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>12340</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>12346</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>12347</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>12348</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>12372</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>12391</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>12406</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>12415</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>12417</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>12537</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>12593</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>12597</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>12606</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>12611</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>12613</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>12649</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>12708</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>12727</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>12742</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>12747</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>12807</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>12850</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>12864</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>13186</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>13257</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>13409</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>13414</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>13610</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>13628</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>13635</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>13730</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>13768</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>13849</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>13917</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>14041</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>14409</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>14710</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>15063</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>15124</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>15334</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>15443</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>15709</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>15945</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>15967</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>16088</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>16117</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>16150</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>16183</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>16245</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>16256</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>16279</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>16281</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>16329</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>16334</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>16447</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>16501</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>16528</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>16553</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>16557</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>16592</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>16613</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>16679</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>16683</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>16706</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>16904</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>16953</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>17051</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>17059</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>17087</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>17219</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>17236</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>17307</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>17389</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>17402</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>17557</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>17561</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>17608</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>17622</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>17623</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>17655</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>17657</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>17659</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>17680</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>17681</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>17693</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>17699</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>17719</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>17727</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>17746</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>17753</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>17754</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>17786</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>17807</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>17810</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>17827</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>17860</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>17888</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>17929</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>17935</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>17992</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>18008</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>18033</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>18038</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>18082</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>18094</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>18120</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>18121</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>18129</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>18193</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>18217</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>18227</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>18243</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>18337</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>18371</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>18374</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>18388</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>18390</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>18395</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>18402</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>18408</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>18452</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>18498</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>18559</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>18565</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>18582</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>18640</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>18737</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>18816</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>18840</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>18953</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>18958</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>18988</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>18994</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>19000</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>19009</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>19038</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>19049</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>19112</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>19145</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>19205</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>19214</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>19268</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>19273</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>19281</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>19307</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>19322</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>19364</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>19404</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>19454</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>19455</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>19469</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>19507</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>19514</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>19541</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>19600</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>19730</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>19752</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>19814</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>19875</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>19901</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>19945</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>20003</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>20029</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>20047</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>20129</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>20225</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>20245</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>20263</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>20292</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>20360</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>20428</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>20478</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>20523</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>20620</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>20649</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>20673</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>20682</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>20704</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>21001</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>21024</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>21104</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>21160</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>21218</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>21313</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>21365</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>21475</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>21487</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>21499</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>21511</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>21555</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>21653</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>21711</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>21729</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>21774</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>21863</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>21949</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>22017</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>22063</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>22080</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>22164</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>22178</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>22222</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>22227</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>22230</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>22254</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>22276</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>22411</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>22452</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>22477</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>22672</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>22688</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>22737</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>22798</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>22905</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>23165</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>23352</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>23714</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>24007</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>24172</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>24185</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>826</v>
       </c>
@@ -11496,27 +11501,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>318</v>
       </c>
@@ -11549,7 +11554,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>690</v>
       </c>
@@ -11582,7 +11587,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -11615,7 +11620,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -11648,7 +11653,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>322</v>
       </c>
@@ -11681,7 +11686,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>325</v>
       </c>
@@ -11714,7 +11719,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>304</v>
       </c>
@@ -11747,7 +11752,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>615</v>
       </c>
@@ -11780,7 +11785,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -11813,7 +11818,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>329</v>
       </c>
@@ -11846,7 +11851,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -11879,7 +11884,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -11912,7 +11917,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -11944,7 +11949,7 @@
         <v>24858</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
@@ -11976,7 +11981,7 @@
         <v>24491</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>335</v>
       </c>
@@ -12008,7 +12013,7 @@
         <v>24804</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -12040,7 +12045,7 @@
         <v>20384</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>339</v>
       </c>
@@ -12072,7 +12077,7 @@
         <v>27548</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>341</v>
       </c>
@@ -12104,7 +12109,7 @@
         <v>30341</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>345</v>
       </c>
@@ -12136,7 +12141,7 @@
         <v>26332</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>351</v>
       </c>
@@ -12168,7 +12173,7 @@
         <v>27487</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>352</v>
       </c>
@@ -12200,7 +12205,7 @@
         <v>20548</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>355</v>
       </c>
@@ -12232,7 +12237,7 @@
         <v>29197</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>358</v>
       </c>
@@ -12264,7 +12269,7 @@
         <v>31655</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>360</v>
       </c>
@@ -12296,7 +12301,7 @@
         <v>23795</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>362</v>
       </c>
@@ -12328,7 +12333,7 @@
         <v>28694</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>39</v>
       </c>
@@ -12360,7 +12365,7 @@
         <v>23617</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>366</v>
       </c>
@@ -12392,7 +12397,7 @@
         <v>30507</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>822</v>
       </c>
@@ -12424,7 +12429,7 @@
         <v>23466</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>42</v>
       </c>
@@ -12456,7 +12461,7 @@
         <v>24482</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>45</v>
       </c>
@@ -12488,7 +12493,7 @@
         <v>22822</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>372</v>
       </c>
@@ -12520,7 +12525,7 @@
         <v>32710</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>52</v>
       </c>
@@ -12552,7 +12557,7 @@
         <v>21962</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
@@ -12584,7 +12589,7 @@
         <v>22797</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>373</v>
       </c>
@@ -12616,7 +12621,7 @@
         <v>29869</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>60</v>
       </c>
@@ -12648,7 +12653,7 @@
         <v>24825</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>64</v>
       </c>
@@ -12680,7 +12685,7 @@
         <v>31559</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>68</v>
       </c>
@@ -12712,7 +12717,7 @@
         <v>30617</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>378</v>
       </c>
@@ -12744,7 +12749,7 @@
         <v>26666</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>685</v>
       </c>
@@ -12776,7 +12781,7 @@
         <v>23653</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>73</v>
       </c>
@@ -12808,7 +12813,7 @@
         <v>20662</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>77</v>
       </c>
@@ -12840,7 +12845,7 @@
         <v>24801</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>381</v>
       </c>
@@ -12872,7 +12877,7 @@
         <v>26366</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>384</v>
       </c>
@@ -12904,7 +12909,7 @@
         <v>33156</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>387</v>
       </c>
@@ -12936,7 +12941,7 @@
         <v>30194</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>391</v>
       </c>
@@ -12968,7 +12973,7 @@
         <v>23397</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>377</v>
       </c>
@@ -13000,7 +13005,7 @@
         <v>33378</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>577</v>
       </c>
@@ -13032,7 +13037,7 @@
         <v>28881</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>513</v>
       </c>
@@ -13064,7 +13069,7 @@
         <v>24216</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>397</v>
       </c>
@@ -13096,7 +13101,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>81</v>
       </c>
@@ -13128,7 +13133,7 @@
         <v>24029</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>677</v>
       </c>
@@ -13160,7 +13165,7 @@
         <v>22710</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>400</v>
       </c>
@@ -13192,7 +13197,7 @@
         <v>30014</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>404</v>
       </c>
@@ -13224,7 +13229,7 @@
         <v>33177</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>407</v>
       </c>
@@ -13256,7 +13261,7 @@
         <v>28976</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>410</v>
       </c>
@@ -13288,7 +13293,7 @@
         <v>20159</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>85</v>
       </c>
@@ -13320,7 +13325,7 @@
         <v>25658</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>88</v>
       </c>
@@ -13352,7 +13357,7 @@
         <v>24751</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>413</v>
       </c>
@@ -13384,7 +13389,7 @@
         <v>33760</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>479</v>
       </c>
@@ -13416,7 +13421,7 @@
         <v>32842</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>92</v>
       </c>
@@ -13448,7 +13453,7 @@
         <v>31446</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>418</v>
       </c>
@@ -13480,7 +13485,7 @@
         <v>27277</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>422</v>
       </c>
@@ -13512,7 +13517,7 @@
         <v>30989</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>95</v>
       </c>
@@ -13544,7 +13549,7 @@
         <v>26523</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>332</v>
       </c>
@@ -13576,7 +13581,7 @@
         <v>24490</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>99</v>
       </c>
@@ -13608,7 +13613,7 @@
         <v>20837</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>348</v>
       </c>
@@ -13640,7 +13645,7 @@
         <v>20433</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>425</v>
       </c>
@@ -13672,7 +13677,7 @@
         <v>31305</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>428</v>
       </c>
@@ -13704,7 +13709,7 @@
         <v>29903</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>164</v>
       </c>
@@ -13736,7 +13741,7 @@
         <v>24857</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>430</v>
       </c>
@@ -13768,7 +13773,7 @@
         <v>25928</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>678</v>
       </c>
@@ -13800,7 +13805,7 @@
         <v>21136</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>432</v>
       </c>
@@ -13832,7 +13837,7 @@
         <v>29804</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>495</v>
       </c>
@@ -13864,7 +13869,7 @@
         <v>24918</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>434</v>
       </c>
@@ -13896,7 +13901,7 @@
         <v>31810</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>437</v>
       </c>
@@ -13928,7 +13933,7 @@
         <v>26330</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>441</v>
       </c>
@@ -13960,7 +13965,7 @@
         <v>29354</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>306</v>
       </c>
@@ -13992,7 +13997,7 @@
         <v>21112</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>446</v>
       </c>
@@ -14024,7 +14029,7 @@
         <v>24954</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>449</v>
       </c>
@@ -14056,7 +14061,7 @@
         <v>29001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>106</v>
       </c>
@@ -14088,7 +14093,7 @@
         <v>24529</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>463</v>
       </c>
@@ -14120,7 +14125,7 @@
         <v>21907</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>451</v>
       </c>
@@ -14152,7 +14157,7 @@
         <v>22319</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>455</v>
       </c>
@@ -14184,7 +14189,7 @@
         <v>24221</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>533</v>
       </c>
@@ -14216,7 +14221,7 @@
         <v>33127</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>457</v>
       </c>
@@ -14248,7 +14253,7 @@
         <v>30846</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>114</v>
       </c>
@@ -14280,7 +14285,7 @@
         <v>32464</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>110</v>
       </c>
@@ -14312,7 +14317,7 @@
         <v>22185</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>459</v>
       </c>
@@ -14344,7 +14349,7 @@
         <v>31046</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>117</v>
       </c>
@@ -14376,7 +14381,7 @@
         <v>20357</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>676</v>
       </c>
@@ -14408,7 +14413,7 @@
         <v>21298</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>464</v>
       </c>
@@ -14440,7 +14445,7 @@
         <v>33872</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
         <v>121</v>
       </c>
@@ -14472,7 +14477,7 @@
         <v>21929</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
         <v>466</v>
       </c>
@@ -14504,7 +14509,7 @@
         <v>24892</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>104</v>
       </c>
@@ -14536,7 +14541,7 @@
         <v>23623</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>529</v>
       </c>
@@ -14568,7 +14573,7 @@
         <v>22251</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>125</v>
       </c>
@@ -14600,7 +14605,7 @@
         <v>24052</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>469</v>
       </c>
@@ -14632,7 +14637,7 @@
         <v>26494</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>129</v>
       </c>
@@ -14664,7 +14669,7 @@
         <v>26355</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>471</v>
       </c>
@@ -14696,7 +14701,7 @@
         <v>22564</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>476</v>
       </c>
@@ -14728,7 +14733,7 @@
         <v>22666</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>521</v>
       </c>
@@ -14760,7 +14765,7 @@
         <v>20882</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>137</v>
       </c>
@@ -14792,7 +14797,7 @@
         <v>24931</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>133</v>
       </c>
@@ -14824,7 +14829,7 @@
         <v>21124</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>138</v>
       </c>
@@ -14856,7 +14861,7 @@
         <v>32700</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
         <v>482</v>
       </c>
@@ -14888,7 +14893,7 @@
         <v>24274</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
         <v>499</v>
       </c>
@@ -14920,7 +14925,7 @@
         <v>24865</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>141</v>
       </c>
@@ -14952,7 +14957,7 @@
         <v>25552</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>143</v>
       </c>
@@ -14984,7 +14989,7 @@
         <v>24578</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>146</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>29884</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
         <v>274</v>
       </c>
@@ -15048,7 +15053,7 @@
         <v>30620</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>166</v>
       </c>
@@ -15080,7 +15085,7 @@
         <v>24517</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
         <v>664</v>
       </c>
@@ -15112,7 +15117,7 @@
         <v>22366</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
         <v>563</v>
       </c>
@@ -15144,7 +15149,7 @@
         <v>21246</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
         <v>154</v>
       </c>
@@ -15176,7 +15181,7 @@
         <v>32258</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>157</v>
       </c>
@@ -15208,7 +15213,7 @@
         <v>31349</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>149</v>
       </c>
@@ -15240,7 +15245,7 @@
         <v>22482</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
         <v>80</v>
       </c>
@@ -15272,7 +15277,7 @@
         <v>31405</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="s">
         <v>498</v>
       </c>
@@ -15304,7 +15309,7 @@
         <v>25439</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
         <v>699</v>
       </c>
@@ -15336,7 +15341,7 @@
         <v>24956</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
         <v>370</v>
       </c>
@@ -15368,7 +15373,7 @@
         <v>23116</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
         <v>444</v>
       </c>
@@ -15400,7 +15405,7 @@
         <v>22991</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
         <v>712</v>
       </c>
@@ -15432,7 +15437,7 @@
         <v>22067</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
         <v>621</v>
       </c>
@@ -15464,7 +15469,7 @@
         <v>22264</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
         <v>376</v>
       </c>
@@ -15496,7 +15501,7 @@
         <v>30220</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
         <v>196</v>
       </c>
@@ -15528,7 +15533,7 @@
         <v>23499</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="s">
         <v>161</v>
       </c>
@@ -15560,7 +15565,7 @@
         <v>24884</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
         <v>483</v>
       </c>
@@ -15592,7 +15597,7 @@
         <v>24159</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="s">
         <v>485</v>
       </c>
@@ -15624,7 +15629,7 @@
         <v>24988</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
         <v>487</v>
       </c>
@@ -15656,7 +15661,7 @@
         <v>23338</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
         <v>489</v>
       </c>
@@ -15688,7 +15693,7 @@
         <v>24418</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
         <v>493</v>
       </c>
@@ -15720,7 +15725,7 @@
         <v>26902</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
         <v>168</v>
       </c>
@@ -15752,7 +15757,7 @@
         <v>29425</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
         <v>500</v>
       </c>
@@ -15784,7 +15789,7 @@
         <v>31450</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>172</v>
       </c>
@@ -15816,7 +15821,7 @@
         <v>23207</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
         <v>503</v>
       </c>
@@ -15848,7 +15853,7 @@
         <v>21938</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
         <v>506</v>
       </c>
@@ -15880,7 +15885,7 @@
         <v>20594</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
         <v>510</v>
       </c>
@@ -15912,7 +15917,7 @@
         <v>32069</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
         <v>515</v>
       </c>
@@ -15944,7 +15949,7 @@
         <v>23466</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
         <v>518</v>
       </c>
@@ -15976,7 +15981,7 @@
         <v>30888</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="s">
         <v>176</v>
       </c>
@@ -16008,7 +16013,7 @@
         <v>21507</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
         <v>522</v>
       </c>
@@ -16040,7 +16045,7 @@
         <v>23097</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="s">
         <v>178</v>
       </c>
@@ -16072,7 +16077,7 @@
         <v>30451</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
         <v>180</v>
       </c>
@@ -16104,7 +16109,7 @@
         <v>24237</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="s">
         <v>183</v>
       </c>
@@ -16136,7 +16141,7 @@
         <v>27168</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
         <v>524</v>
       </c>
@@ -16168,7 +16173,7 @@
         <v>32701</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="s">
         <v>186</v>
       </c>
@@ -16200,7 +16205,7 @@
         <v>29747</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
         <v>193</v>
       </c>
@@ -16232,7 +16237,7 @@
         <v>28843</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="11" t="s">
         <v>190</v>
       </c>
@@ -16264,7 +16269,7 @@
         <v>23527</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="s">
         <v>646</v>
       </c>
@@ -16296,7 +16301,7 @@
         <v>31580</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="s">
         <v>481</v>
       </c>
@@ -16328,7 +16333,7 @@
         <v>30239</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
         <v>571</v>
       </c>
@@ -16360,7 +16365,7 @@
         <v>23562</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="11" t="s">
         <v>669</v>
       </c>
@@ -16392,7 +16397,7 @@
         <v>23343</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="s">
         <v>530</v>
       </c>
@@ -16424,7 +16429,7 @@
         <v>33303</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="s">
         <v>198</v>
       </c>
@@ -16456,7 +16461,7 @@
         <v>24603</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="11" t="s">
         <v>534</v>
       </c>
@@ -16488,7 +16493,7 @@
         <v>32356</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="s">
         <v>201</v>
       </c>
@@ -16520,7 +16525,7 @@
         <v>29308</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="11" t="s">
         <v>537</v>
       </c>
@@ -16552,7 +16557,7 @@
         <v>24723</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="11" t="s">
         <v>541</v>
       </c>
@@ -16584,7 +16589,7 @@
         <v>26428</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="s">
         <v>205</v>
       </c>
@@ -16616,7 +16621,7 @@
         <v>21393</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="s">
         <v>544</v>
       </c>
@@ -16648,7 +16653,7 @@
         <v>30596</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="s">
         <v>546</v>
       </c>
@@ -16680,7 +16685,7 @@
         <v>21056</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="11" t="s">
         <v>549</v>
       </c>
@@ -16712,7 +16717,7 @@
         <v>23142</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="s">
         <v>551</v>
       </c>
@@ -16744,7 +16749,7 @@
         <v>30074</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="11" t="s">
         <v>208</v>
       </c>
@@ -16776,7 +16781,7 @@
         <v>21610</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="s">
         <v>211</v>
       </c>
@@ -16808,7 +16813,7 @@
         <v>23104</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="11" t="s">
         <v>554</v>
       </c>
@@ -16840,7 +16845,7 @@
         <v>25998</v>
       </c>
     </row>
-    <row r="167" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="11" t="s">
         <v>556</v>
       </c>
@@ -16872,7 +16877,7 @@
         <v>25932</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="11" t="s">
         <v>560</v>
       </c>
@@ -16904,7 +16909,7 @@
         <v>31430</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="11" t="s">
         <v>214</v>
       </c>
@@ -16936,7 +16941,7 @@
         <v>31087</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="s">
         <v>216</v>
       </c>
@@ -16968,7 +16973,7 @@
         <v>23971</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="11" t="s">
         <v>564</v>
       </c>
@@ -17000,7 +17005,7 @@
         <v>23602</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="11" t="s">
         <v>220</v>
       </c>
@@ -17032,7 +17037,7 @@
         <v>20335</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="11" t="s">
         <v>527</v>
       </c>
@@ -17064,7 +17069,7 @@
         <v>31082</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="s">
         <v>223</v>
       </c>
@@ -17096,7 +17101,7 @@
         <v>20958</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="s">
         <v>569</v>
       </c>
@@ -17128,7 +17133,7 @@
         <v>24930</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="s">
         <v>226</v>
       </c>
@@ -17160,7 +17165,7 @@
         <v>26054</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>229</v>
       </c>
@@ -17192,7 +17197,7 @@
         <v>20748</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="s">
         <v>572</v>
       </c>
@@ -17224,7 +17229,7 @@
         <v>24676</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
         <v>232</v>
       </c>
@@ -17256,7 +17261,7 @@
         <v>21393</v>
       </c>
     </row>
-    <row r="180" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="s">
         <v>575</v>
       </c>
@@ -17288,7 +17293,7 @@
         <v>29864</v>
       </c>
     </row>
-    <row r="181" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
         <v>584</v>
       </c>
@@ -17320,7 +17325,7 @@
         <v>33473</v>
       </c>
     </row>
-    <row r="182" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="s">
         <v>581</v>
       </c>
@@ -17352,7 +17357,7 @@
         <v>25001</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
         <v>200</v>
       </c>
@@ -17384,7 +17389,7 @@
         <v>24784</v>
       </c>
     </row>
-    <row r="184" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="11" t="s">
         <v>237</v>
       </c>
@@ -17416,7 +17421,7 @@
         <v>29202</v>
       </c>
     </row>
-    <row r="185" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="s">
         <v>586</v>
       </c>
@@ -17448,7 +17453,7 @@
         <v>22608</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="11" t="s">
         <v>588</v>
       </c>
@@ -17480,7 +17485,7 @@
         <v>24113</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="s">
         <v>241</v>
       </c>
@@ -17512,7 +17517,7 @@
         <v>21298</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="11" t="s">
         <v>245</v>
       </c>
@@ -17544,7 +17549,7 @@
         <v>27901</v>
       </c>
     </row>
-    <row r="189" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="11" t="s">
         <v>592</v>
       </c>
@@ -17576,7 +17581,7 @@
         <v>25222</v>
       </c>
     </row>
-    <row r="190" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="11" t="s">
         <v>395</v>
       </c>
@@ -17608,7 +17613,7 @@
         <v>32569</v>
       </c>
     </row>
-    <row r="191" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="11" t="s">
         <v>642</v>
       </c>
@@ -17640,7 +17645,7 @@
         <v>31156</v>
       </c>
     </row>
-    <row r="192" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="11" t="s">
         <v>394</v>
       </c>
@@ -17672,7 +17677,7 @@
         <v>30407</v>
       </c>
     </row>
-    <row r="193" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="11" t="s">
         <v>526</v>
       </c>
@@ -17704,7 +17709,7 @@
         <v>29998</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="11" t="s">
         <v>416</v>
       </c>
@@ -17736,7 +17741,7 @@
         <v>24619</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="11" t="s">
         <v>596</v>
       </c>
@@ -17768,7 +17773,7 @@
         <v>25524</v>
       </c>
     </row>
-    <row r="196" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="11" t="s">
         <v>248</v>
       </c>
@@ -17800,7 +17805,7 @@
         <v>24223</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="11" t="s">
         <v>599</v>
       </c>
@@ -17832,7 +17837,7 @@
         <v>23573</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="11" t="s">
         <v>645</v>
       </c>
@@ -17864,7 +17869,7 @@
         <v>26277</v>
       </c>
     </row>
-    <row r="199" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="11" t="s">
         <v>252</v>
       </c>
@@ -17896,7 +17901,7 @@
         <v>27735</v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="11" t="s">
         <v>603</v>
       </c>
@@ -17928,7 +17933,7 @@
         <v>32610</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="11" t="s">
         <v>605</v>
       </c>
@@ -17960,7 +17965,7 @@
         <v>25050</v>
       </c>
     </row>
-    <row r="202" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="11" t="s">
         <v>608</v>
       </c>
@@ -17992,7 +17997,7 @@
         <v>24203</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="11" t="s">
         <v>402</v>
       </c>
@@ -18024,7 +18029,7 @@
         <v>31643</v>
       </c>
     </row>
-    <row r="204" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="11" t="s">
         <v>624</v>
       </c>
@@ -18056,7 +18061,7 @@
         <v>22183</v>
       </c>
     </row>
-    <row r="205" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="11" t="s">
         <v>265</v>
       </c>
@@ -18088,7 +18093,7 @@
         <v>25560</v>
       </c>
     </row>
-    <row r="206" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="11" t="s">
         <v>417</v>
       </c>
@@ -18120,7 +18125,7 @@
         <v>28762</v>
       </c>
     </row>
-    <row r="207" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="11" t="s">
         <v>610</v>
       </c>
@@ -18152,7 +18157,7 @@
         <v>24394</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="11" t="s">
         <v>568</v>
       </c>
@@ -18184,7 +18189,7 @@
         <v>30695</v>
       </c>
     </row>
-    <row r="209" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="11" t="s">
         <v>102</v>
       </c>
@@ -18216,7 +18221,7 @@
         <v>24952</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="11" t="s">
         <v>612</v>
       </c>
@@ -18248,7 +18253,7 @@
         <v>30687</v>
       </c>
     </row>
-    <row r="211" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="11" t="s">
         <v>259</v>
       </c>
@@ -18280,7 +18285,7 @@
         <v>28202</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="11" t="s">
         <v>475</v>
       </c>
@@ -18312,7 +18317,7 @@
         <v>22348</v>
       </c>
     </row>
-    <row r="213" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="11" t="s">
         <v>618</v>
       </c>
@@ -18344,7 +18349,7 @@
         <v>26083</v>
       </c>
     </row>
-    <row r="214" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="11" t="s">
         <v>262</v>
       </c>
@@ -18376,7 +18381,7 @@
         <v>23874</v>
       </c>
     </row>
-    <row r="215" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="11" t="s">
         <v>559</v>
       </c>
@@ -18408,7 +18413,7 @@
         <v>31501</v>
       </c>
     </row>
-    <row r="216" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="s">
         <v>219</v>
       </c>
@@ -18440,7 +18445,7 @@
         <v>25905</v>
       </c>
     </row>
-    <row r="217" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="11" t="s">
         <v>131</v>
       </c>
@@ -18472,7 +18477,7 @@
         <v>22088</v>
       </c>
     </row>
-    <row r="218" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="11" t="s">
         <v>622</v>
       </c>
@@ -18504,7 +18509,7 @@
         <v>26019</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="11" t="s">
         <v>528</v>
       </c>
@@ -18536,7 +18541,7 @@
         <v>30938</v>
       </c>
     </row>
-    <row r="220" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="11" t="s">
         <v>625</v>
       </c>
@@ -18568,7 +18573,7 @@
         <v>25209</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="11" t="s">
         <v>256</v>
       </c>
@@ -18600,7 +18605,7 @@
         <v>24573</v>
       </c>
     </row>
-    <row r="222" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11" t="s">
         <v>629</v>
       </c>
@@ -18632,7 +18637,7 @@
         <v>30205</v>
       </c>
     </row>
-    <row r="223" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="11" t="s">
         <v>631</v>
       </c>
@@ -18664,7 +18669,7 @@
         <v>23406</v>
       </c>
     </row>
-    <row r="224" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="11" t="s">
         <v>267</v>
       </c>
@@ -18696,7 +18701,7 @@
         <v>23011</v>
       </c>
     </row>
-    <row r="225" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="11" t="s">
         <v>634</v>
       </c>
@@ -18728,7 +18733,7 @@
         <v>23330</v>
       </c>
     </row>
-    <row r="226" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="11" t="s">
         <v>270</v>
       </c>
@@ -18760,7 +18765,7 @@
         <v>23658</v>
       </c>
     </row>
-    <row r="227" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="11" t="s">
         <v>637</v>
       </c>
@@ -18792,7 +18797,7 @@
         <v>25054</v>
       </c>
     </row>
-    <row r="228" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="11" t="s">
         <v>160</v>
       </c>
@@ -18824,7 +18829,7 @@
         <v>26058</v>
       </c>
     </row>
-    <row r="229" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="11" t="s">
         <v>639</v>
       </c>
@@ -18856,7 +18861,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="230" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="11" t="s">
         <v>235</v>
       </c>
@@ -18888,7 +18893,7 @@
         <v>24682</v>
       </c>
     </row>
-    <row r="231" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="11" t="s">
         <v>275</v>
       </c>
@@ -18920,7 +18925,7 @@
         <v>21587</v>
       </c>
     </row>
-    <row r="232" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="11" t="s">
         <v>567</v>
       </c>
@@ -18952,7 +18957,7 @@
         <v>32781</v>
       </c>
     </row>
-    <row r="233" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="11" t="s">
         <v>505</v>
       </c>
@@ -18984,7 +18989,7 @@
         <v>26461</v>
       </c>
     </row>
-    <row r="234" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="11" t="s">
         <v>644</v>
       </c>
@@ -19016,7 +19021,7 @@
         <v>26110</v>
       </c>
     </row>
-    <row r="235" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="11" t="s">
         <v>278</v>
       </c>
@@ -19048,7 +19053,7 @@
         <v>22736</v>
       </c>
     </row>
-    <row r="236" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="11" t="s">
         <v>282</v>
       </c>
@@ -19080,7 +19085,7 @@
         <v>30691</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="11" t="s">
         <v>647</v>
       </c>
@@ -19112,7 +19117,7 @@
         <v>25003</v>
       </c>
     </row>
-    <row r="238" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="11" t="s">
         <v>285</v>
       </c>
@@ -19144,7 +19149,7 @@
         <v>26164</v>
       </c>
     </row>
-    <row r="239" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="11" t="s">
         <v>287</v>
       </c>
@@ -19176,7 +19181,7 @@
         <v>26863</v>
       </c>
     </row>
-    <row r="240" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="11" t="s">
         <v>649</v>
       </c>
@@ -19208,7 +19213,7 @@
         <v>30423</v>
       </c>
     </row>
-    <row r="241" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="11" t="s">
         <v>289</v>
       </c>
@@ -19240,7 +19245,7 @@
         <v>22859</v>
       </c>
     </row>
-    <row r="242" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="11" t="s">
         <v>651</v>
       </c>
@@ -19272,7 +19277,7 @@
         <v>28570</v>
       </c>
     </row>
-    <row r="243" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="11" t="s">
         <v>656</v>
       </c>
@@ -19304,7 +19309,7 @@
         <v>31105</v>
       </c>
     </row>
-    <row r="244" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="11" t="s">
         <v>298</v>
       </c>
@@ -19336,7 +19341,7 @@
         <v>32052</v>
       </c>
     </row>
-    <row r="245" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="11" t="s">
         <v>292</v>
       </c>
@@ -19368,7 +19373,7 @@
         <v>30196</v>
       </c>
     </row>
-    <row r="246" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="11" t="s">
         <v>296</v>
       </c>
@@ -19400,7 +19405,7 @@
         <v>28983</v>
       </c>
     </row>
-    <row r="247" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="11" t="s">
         <v>659</v>
       </c>
@@ -19432,7 +19437,7 @@
         <v>20389</v>
       </c>
     </row>
-    <row r="248" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="11" t="s">
         <v>264</v>
       </c>
@@ -19464,7 +19469,7 @@
         <v>23070</v>
       </c>
     </row>
-    <row r="249" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="11" t="s">
         <v>661</v>
       </c>
@@ -19496,7 +19501,7 @@
         <v>22181</v>
       </c>
     </row>
-    <row r="250" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="11" t="s">
         <v>666</v>
       </c>
@@ -19528,7 +19533,7 @@
         <v>30271</v>
       </c>
     </row>
-    <row r="251" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="11" t="s">
         <v>671</v>
       </c>
@@ -19560,7 +19565,7 @@
         <v>25375</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="11" t="s">
         <v>674</v>
       </c>
@@ -19592,7 +19597,7 @@
         <v>30005</v>
       </c>
     </row>
-    <row r="253" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="11" t="s">
         <v>424</v>
       </c>
@@ -19624,7 +19629,7 @@
         <v>30263</v>
       </c>
     </row>
-    <row r="254" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="11" t="s">
         <v>496</v>
       </c>
@@ -19656,7 +19661,7 @@
         <v>30018</v>
       </c>
     </row>
-    <row r="255" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="11" t="s">
         <v>301</v>
       </c>
@@ -19688,7 +19693,7 @@
         <v>30765</v>
       </c>
     </row>
-    <row r="256" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="11" t="s">
         <v>553</v>
       </c>
@@ -19720,7 +19725,7 @@
         <v>21991</v>
       </c>
     </row>
-    <row r="257" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="11" t="s">
         <v>653</v>
       </c>
@@ -19752,7 +19757,7 @@
         <v>20531</v>
       </c>
     </row>
-    <row r="258" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="11" t="s">
         <v>308</v>
       </c>
@@ -19784,7 +19789,7 @@
         <v>21451</v>
       </c>
     </row>
-    <row r="259" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="11" t="s">
         <v>679</v>
       </c>
@@ -19816,7 +19821,7 @@
         <v>30274</v>
       </c>
     </row>
-    <row r="260" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="11" t="s">
         <v>682</v>
       </c>
@@ -19848,7 +19853,7 @@
         <v>32685</v>
       </c>
     </row>
-    <row r="261" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="11" t="s">
         <v>684</v>
       </c>
@@ -19880,7 +19885,7 @@
         <v>30264</v>
       </c>
     </row>
-    <row r="262" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="11" t="s">
         <v>686</v>
       </c>
@@ -19912,7 +19917,7 @@
         <v>22881</v>
       </c>
     </row>
-    <row r="263" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="11" t="s">
         <v>436</v>
       </c>
@@ -19944,7 +19949,7 @@
         <v>23157</v>
       </c>
     </row>
-    <row r="264" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="11" t="s">
         <v>365</v>
       </c>
@@ -19976,7 +19981,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="265" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>311</v>
       </c>
@@ -20008,7 +20013,7 @@
         <v>23771</v>
       </c>
     </row>
-    <row r="266" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="11" t="s">
         <v>691</v>
       </c>
@@ -20040,7 +20045,7 @@
         <v>22133</v>
       </c>
     </row>
-    <row r="267" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="11" t="s">
         <v>49</v>
       </c>
@@ -20072,7 +20077,7 @@
         <v>23611</v>
       </c>
     </row>
-    <row r="268" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="11" t="s">
         <v>585</v>
       </c>
@@ -20104,7 +20109,7 @@
         <v>20381</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="11" t="s">
         <v>616</v>
       </c>
@@ -20136,7 +20141,7 @@
         <v>24384</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="11" t="s">
         <v>175</v>
       </c>
@@ -20168,7 +20173,7 @@
         <v>31894</v>
       </c>
     </row>
-    <row r="271" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="11" t="s">
         <v>314</v>
       </c>
@@ -20200,7 +20205,7 @@
         <v>25392</v>
       </c>
     </row>
-    <row r="272" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="11" t="s">
         <v>694</v>
       </c>
@@ -20232,7 +20237,7 @@
         <v>31833</v>
       </c>
     </row>
-    <row r="273" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="11" t="s">
         <v>579</v>
       </c>
@@ -20264,7 +20269,7 @@
         <v>23289</v>
       </c>
     </row>
-    <row r="274" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="11" t="s">
         <v>697</v>
       </c>
@@ -20296,7 +20301,7 @@
         <v>29761</v>
       </c>
     </row>
-    <row r="275" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="11" t="s">
         <v>523</v>
       </c>
@@ -20328,7 +20333,7 @@
         <v>24046</v>
       </c>
     </row>
-    <row r="276" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="11" t="s">
         <v>628</v>
       </c>
@@ -20360,7 +20365,7 @@
         <v>23304</v>
       </c>
     </row>
-    <row r="277" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="11" t="s">
         <v>700</v>
       </c>
@@ -20392,7 +20397,7 @@
         <v>20134</v>
       </c>
     </row>
-    <row r="278" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="11" t="s">
         <v>315</v>
       </c>
@@ -20424,7 +20429,7 @@
         <v>21897</v>
       </c>
     </row>
-    <row r="279" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="11" t="s">
         <v>71</v>
       </c>
@@ -20456,7 +20461,7 @@
         <v>24240</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="11" t="s">
         <v>702</v>
       </c>
@@ -20488,7 +20493,7 @@
         <v>26514</v>
       </c>
     </row>
-    <row r="281" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="11" t="s">
         <v>704</v>
       </c>
@@ -20520,7 +20525,7 @@
         <v>21100</v>
       </c>
     </row>
-    <row r="282" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="11" t="s">
         <v>708</v>
       </c>
@@ -20552,7 +20557,7 @@
         <v>23156</v>
       </c>
     </row>
-    <row r="283" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="11" t="s">
         <v>710</v>
       </c>
@@ -20584,7 +20589,7 @@
         <v>33401</v>
       </c>
     </row>
-    <row r="284" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="17" t="s">
         <v>620</v>
       </c>
@@ -20616,7 +20621,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="285" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285"/>
@@ -20633,8 +20638,8 @@
     <sortCondition ref="A1:A286"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C272" r:id="rId1" tooltip="à écouter..."/>
-    <hyperlink ref="C257" r:id="rId2" location="music/antonio-vivaldi/vivaldi-418897" tooltip="de Vivaldi"/>
+    <hyperlink ref="C272" r:id="rId1" tooltip="à écouter..." xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C257" r:id="rId2" location="music/antonio-vivaldi/vivaldi-418897" tooltip="de Vivaldi" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
